--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.121619.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.121619.xlsx_with_dialog_acts.xlsx
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1497,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1953,12 +1953,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2679,12 +2679,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2717,12 +2717,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3743,12 +3743,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4701,12 +4701,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4891,12 +4891,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4929,12 +4929,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5043,12 +5043,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5651,12 +5651,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5765,12 +5765,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5841,12 +5841,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5879,12 +5879,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6107,12 +6107,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6183,12 +6183,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6259,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6449,12 +6449,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7065,12 +7065,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7293,12 +7293,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7909,12 +7909,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8635,12 +8635,12 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8711,12 +8711,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8787,12 +8787,12 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9015,12 +9015,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9357,12 +9357,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9433,12 +9433,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9509,12 +9509,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9855,12 +9855,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10581,12 +10581,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10619,12 +10619,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10657,12 +10657,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11953,12 +11953,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12181,12 +12181,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12219,12 +12219,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12447,12 +12447,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12637,12 +12637,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12675,12 +12675,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13169,12 +13169,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13477,12 +13477,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13667,12 +13667,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14013,12 +14013,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14089,12 +14089,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14321,12 +14321,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
